--- a/backend/uploads/ExtractedFiles/08.02.24/1250.xlsx
+++ b/backend/uploads/ExtractedFiles/08.02.24/1250.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="2">
-        <v>3.56</v>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
